--- a/Data/JOLTS/SC_unemployment.xlsx
+++ b/Data/JOLTS/SC_unemployment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clemson-my.sharepoint.com/personal/meschef_clemson_edu/Documents/Econ_Trends/Econ-Trends/Data/JOLTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16F2E7D3-0CB9-B34A-A18A-30DBD16DA510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E5B27B-DFE5-E043-B8F3-C28AEEFD210D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,906 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D276" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D217" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D218" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D219" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D220" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D221" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D222" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D223" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D224" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D225" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D226" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D227" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D228" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D229" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D230" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D231" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D232" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D233" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D234" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D235" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D236" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D237" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D238" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D239" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D240" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D241" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D242" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D243" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D244" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D245" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D246" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D247" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D248" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D249" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D250" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D251" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D252" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D253" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D254" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D255" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D256" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D257" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D258" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D259" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D260" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D261" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D262" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D263" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D264" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D265" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D266" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D267" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D268" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D269" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D270" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D271" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D272" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D273" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D274" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D275" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D276" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D278" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +944,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="30">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -86,7 +985,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>2000 to 2021</t>
+    <t>2000 to 2022</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -144,7 +1043,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -190,6 +1089,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -287,10 +1192,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
+        <xdr:cNvPr id="1086" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478A6C73-A851-6D4D-A0F7-F99257A1C527}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ED4884-36DB-A348-AC3A-D43CA90E69C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -621,7 +1526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:F278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
@@ -3625,7 +4530,7 @@
         <v>18</v>
       </c>
       <c r="D217" s="3">
-        <v>100081</v>
+        <v>98609</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -3639,7 +4544,7 @@
         <v>19</v>
       </c>
       <c r="D218" s="3">
-        <v>98272</v>
+        <v>96842</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -3653,7 +4558,7 @@
         <v>20</v>
       </c>
       <c r="D219" s="3">
-        <v>96665</v>
+        <v>95309</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -3667,7 +4572,7 @@
         <v>21</v>
       </c>
       <c r="D220" s="3">
-        <v>95490</v>
+        <v>94216</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -3681,7 +4586,7 @@
         <v>22</v>
       </c>
       <c r="D221" s="3">
-        <v>94851</v>
+        <v>93629</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -3695,7 +4600,7 @@
         <v>23</v>
       </c>
       <c r="D222" s="3">
-        <v>94925</v>
+        <v>93696</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -3709,7 +4614,7 @@
         <v>24</v>
       </c>
       <c r="D223" s="3">
-        <v>95665</v>
+        <v>94370</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -3723,7 +4628,7 @@
         <v>25</v>
       </c>
       <c r="D224" s="3">
-        <v>96600</v>
+        <v>95210</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -3737,7 +4642,7 @@
         <v>26</v>
       </c>
       <c r="D225" s="3">
-        <v>97224</v>
+        <v>95747</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -3751,7 +4656,7 @@
         <v>27</v>
       </c>
       <c r="D226" s="3">
-        <v>97200</v>
+        <v>95652</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -3765,7 +4670,7 @@
         <v>28</v>
       </c>
       <c r="D227" s="3">
-        <v>96114</v>
+        <v>94504</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -3779,7 +4684,7 @@
         <v>29</v>
       </c>
       <c r="D228" s="3">
-        <v>93475</v>
+        <v>91832</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -3793,7 +4698,7 @@
         <v>18</v>
       </c>
       <c r="D229" s="3">
-        <v>89474</v>
+        <v>87840</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -3807,7 +4712,7 @@
         <v>19</v>
       </c>
       <c r="D230" s="3">
-        <v>84817</v>
+        <v>83236</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -3821,7 +4726,7 @@
         <v>20</v>
       </c>
       <c r="D231" s="3">
-        <v>80364</v>
+        <v>78871</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -3835,7 +4740,7 @@
         <v>21</v>
       </c>
       <c r="D232" s="3">
-        <v>76966</v>
+        <v>75584</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -3849,7 +4754,7 @@
         <v>22</v>
       </c>
       <c r="D233" s="3">
-        <v>75282</v>
+        <v>73997</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -3863,7 +4768,7 @@
         <v>23</v>
       </c>
       <c r="D234" s="3">
-        <v>75271</v>
+        <v>74031</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -3877,7 +4782,7 @@
         <v>24</v>
       </c>
       <c r="D235" s="3">
-        <v>76212</v>
+        <v>74961</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -3891,7 +4796,7 @@
         <v>25</v>
       </c>
       <c r="D236" s="3">
-        <v>77260</v>
+        <v>75978</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -3905,7 +4810,7 @@
         <v>26</v>
       </c>
       <c r="D237" s="3">
-        <v>77695</v>
+        <v>76399</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -3919,7 +4824,7 @@
         <v>27</v>
       </c>
       <c r="D238" s="3">
-        <v>77357</v>
+        <v>76058</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -3933,7 +4838,7 @@
         <v>28</v>
       </c>
       <c r="D239" s="3">
-        <v>76728</v>
+        <v>75386</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -3947,7 +4852,7 @@
         <v>29</v>
       </c>
       <c r="D240" s="3">
-        <v>76353</v>
+        <v>74935</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -3961,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="D241" s="3">
-        <v>76256</v>
+        <v>74755</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -3975,7 +4880,7 @@
         <v>19</v>
       </c>
       <c r="D242" s="3">
-        <v>75960</v>
+        <v>74427</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -3989,7 +4894,7 @@
         <v>20</v>
       </c>
       <c r="D243" s="3">
-        <v>75020</v>
+        <v>73554</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -4003,7 +4908,7 @@
         <v>21</v>
       </c>
       <c r="D244" s="3">
-        <v>72829</v>
+        <v>71570</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -4017,7 +4922,7 @@
         <v>22</v>
       </c>
       <c r="D245" s="3">
-        <v>69255</v>
+        <v>68313</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -4031,7 +4936,7 @@
         <v>23</v>
       </c>
       <c r="D246" s="3">
-        <v>64954</v>
+        <v>64378</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -4045,7 +4950,7 @@
         <v>24</v>
       </c>
       <c r="D247" s="3">
-        <v>60894</v>
+        <v>60681</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -4059,7 +4964,7 @@
         <v>25</v>
       </c>
       <c r="D248" s="3">
-        <v>57789</v>
+        <v>57974</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -4073,7 +4978,7 @@
         <v>26</v>
       </c>
       <c r="D249" s="3">
-        <v>56000</v>
+        <v>56620</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -4087,7 +4992,7 @@
         <v>27</v>
       </c>
       <c r="D250" s="3">
-        <v>55680</v>
+        <v>56876</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -4101,7 +5006,7 @@
         <v>28</v>
       </c>
       <c r="D251" s="3">
-        <v>56682</v>
+        <v>58438</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -4115,7 +5020,7 @@
         <v>29</v>
       </c>
       <c r="D252" s="3">
-        <v>58930</v>
+        <v>60933</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -4129,7 +5034,7 @@
         <v>18</v>
       </c>
       <c r="D253" s="3">
-        <v>62138</v>
+        <v>63929</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -4143,7 +5048,7 @@
         <v>19</v>
       </c>
       <c r="D254" s="3">
-        <v>65980</v>
+        <v>67120</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -4157,7 +5062,7 @@
         <v>20</v>
       </c>
       <c r="D255" s="3">
-        <v>69844</v>
+        <v>70081</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -4171,7 +5076,7 @@
         <v>21</v>
       </c>
       <c r="D256" s="3">
-        <v>270763</v>
+        <v>268537</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -4185,7 +5090,7 @@
         <v>22</v>
       </c>
       <c r="D257" s="3">
-        <v>273164</v>
+        <v>212235</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -4199,7 +5104,7 @@
         <v>23</v>
       </c>
       <c r="D258" s="3">
-        <v>183862</v>
+        <v>181338</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -4213,7 +5118,7 @@
         <v>24</v>
       </c>
       <c r="D259" s="3">
-        <v>183470</v>
+        <v>166767</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -4227,7 +5132,7 @@
         <v>25</v>
       </c>
       <c r="D260" s="3">
-        <v>130549</v>
+        <v>147497</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -4241,7 +5146,7 @@
         <v>26</v>
       </c>
       <c r="D261" s="3">
-        <v>130400</v>
+        <v>137252</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -4255,7 +5160,7 @@
         <v>27</v>
       </c>
       <c r="D262" s="3">
-        <v>130857</v>
+        <v>125520</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -4269,7 +5174,7 @@
         <v>28</v>
       </c>
       <c r="D263" s="3">
-        <v>131355</v>
+        <v>119089</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -4283,7 +5188,7 @@
         <v>29</v>
       </c>
       <c r="D264" s="3">
-        <v>131582</v>
+        <v>115021</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -4297,7 +5202,7 @@
         <v>18</v>
       </c>
       <c r="D265" s="3">
-        <v>125444</v>
+        <v>108934</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -4311,7 +5216,7 @@
         <v>19</v>
       </c>
       <c r="D266" s="3">
-        <v>123928</v>
+        <v>104414</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -4325,7 +5230,7 @@
         <v>20</v>
       </c>
       <c r="D267" s="3">
-        <v>120655</v>
+        <v>101358</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -4339,7 +5244,7 @@
         <v>21</v>
       </c>
       <c r="D268" s="3">
-        <v>118395</v>
+        <v>99319</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -4353,7 +5258,7 @@
         <v>22</v>
       </c>
       <c r="D269" s="3">
-        <v>110437</v>
+        <v>97924</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -4367,7 +5272,7 @@
         <v>23</v>
       </c>
       <c r="D270" s="3">
-        <v>107067</v>
+        <v>97345</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -4381,7 +5286,7 @@
         <v>24</v>
       </c>
       <c r="D271" s="3">
-        <v>103454</v>
+        <v>95396</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -4395,7 +5300,7 @@
         <v>25</v>
       </c>
       <c r="D272" s="3">
-        <v>101481</v>
+        <v>92837</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -4409,7 +5314,7 @@
         <v>26</v>
       </c>
       <c r="D273" s="3">
-        <v>99060</v>
+        <v>89382</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -4423,7 +5328,7 @@
         <v>27</v>
       </c>
       <c r="D274" s="3">
-        <v>94365</v>
+        <v>86523</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -4437,7 +5342,7 @@
         <v>28</v>
       </c>
       <c r="D275" s="3">
-        <v>89467</v>
+        <v>85167</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -4451,7 +5356,35 @@
         <v>29</v>
       </c>
       <c r="D276" s="3">
-        <v>85090</v>
+        <v>84737</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B277" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D277" s="3">
+        <v>82242</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B278" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D278" s="3">
+        <v>82658</v>
       </c>
     </row>
   </sheetData>
@@ -4471,7 +5404,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: February 17, 2022 (11:27:39 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: March 28, 2022 (06:22:58 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
